--- a/Code/Results/Cases/Case_9_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04587507043863</v>
+        <v>24.08664065306622</v>
       </c>
       <c r="C2">
-        <v>14.37420502272175</v>
+        <v>15.32644877405254</v>
       </c>
       <c r="D2">
-        <v>4.322588507196671</v>
+        <v>4.351010548371508</v>
       </c>
       <c r="E2">
-        <v>8.225840808090892</v>
+        <v>7.919805040795937</v>
       </c>
       <c r="F2">
-        <v>27.42196534650002</v>
+        <v>24.81272385597729</v>
       </c>
       <c r="G2">
-        <v>39.3585301655237</v>
+        <v>34.2387628145608</v>
       </c>
       <c r="H2">
-        <v>1.921814872022341</v>
+        <v>1.831219638004862</v>
       </c>
       <c r="I2">
-        <v>2.868315332627565</v>
+        <v>2.754998630085344</v>
       </c>
       <c r="J2">
-        <v>12.24447065821532</v>
+        <v>11.66278161110035</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.47294361233834</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.5027477598816</v>
       </c>
       <c r="N2">
-        <v>7.83801623281273</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.021111949884418</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46788305998194</v>
+        <v>22.4822479414124</v>
       </c>
       <c r="C3">
-        <v>13.63739127664668</v>
+        <v>14.42069027261409</v>
       </c>
       <c r="D3">
-        <v>4.308852242966094</v>
+        <v>4.298379421713005</v>
       </c>
       <c r="E3">
-        <v>8.00109413206911</v>
+        <v>7.746484955597231</v>
       </c>
       <c r="F3">
-        <v>26.3709608297349</v>
+        <v>24.0428590732367</v>
       </c>
       <c r="G3">
-        <v>37.67662098377802</v>
+        <v>33.07149392287886</v>
       </c>
       <c r="H3">
-        <v>2.196581383042946</v>
+        <v>2.07762133088806</v>
       </c>
       <c r="I3">
-        <v>3.111156074018336</v>
+        <v>2.964093603692275</v>
       </c>
       <c r="J3">
-        <v>12.01447258459429</v>
+        <v>11.50115194418853</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.53991301828732</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.36462909585705</v>
       </c>
       <c r="N3">
-        <v>7.482151568973193</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.666314192433936</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44720034267227</v>
+        <v>21.43893509208499</v>
       </c>
       <c r="C4">
-        <v>13.16801200676249</v>
+        <v>13.84125544978113</v>
       </c>
       <c r="D4">
-        <v>4.299530740842196</v>
+        <v>4.265666146635565</v>
       </c>
       <c r="E4">
-        <v>7.858116802052442</v>
+        <v>7.636146574298763</v>
       </c>
       <c r="F4">
-        <v>25.71247435657402</v>
+        <v>23.56252485630977</v>
       </c>
       <c r="G4">
-        <v>36.61512560905759</v>
+        <v>32.34313315990291</v>
       </c>
       <c r="H4">
-        <v>2.370706853705885</v>
+        <v>2.233920748024423</v>
       </c>
       <c r="I4">
-        <v>3.265670007410497</v>
+        <v>3.097573055509446</v>
       </c>
       <c r="J4">
-        <v>11.87395301792818</v>
+        <v>11.40036521096986</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.57673229051682</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.29970614927523</v>
       </c>
       <c r="N4">
-        <v>7.255481124166399</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.440600551755964</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01728097857718</v>
+        <v>21.00646772919714</v>
       </c>
       <c r="C5">
-        <v>12.9835940781101</v>
+        <v>13.61011372038061</v>
       </c>
       <c r="D5">
-        <v>4.295836722117123</v>
+        <v>4.25327910087325</v>
       </c>
       <c r="E5">
-        <v>7.795822911641974</v>
+        <v>7.588066201603744</v>
       </c>
       <c r="F5">
-        <v>25.41738701910471</v>
+        <v>23.34490984732886</v>
       </c>
       <c r="G5">
-        <v>36.13290508925161</v>
+        <v>32.00702363717075</v>
       </c>
       <c r="H5">
-        <v>2.443506214592978</v>
+        <v>2.299293439983681</v>
       </c>
       <c r="I5">
-        <v>3.332870253545849</v>
+        <v>3.156557991993092</v>
       </c>
       <c r="J5">
-        <v>11.80845291028356</v>
+        <v>11.35197445141084</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.5784071755117</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.26830396256579</v>
       </c>
       <c r="N5">
-        <v>7.162058954101654</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.347508208984076</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94509708373536</v>
+        <v>20.93380875626241</v>
       </c>
       <c r="C6">
-        <v>12.96627844275118</v>
+        <v>13.5845415637006</v>
       </c>
       <c r="D6">
-        <v>4.295629782692106</v>
+        <v>4.252508331309405</v>
       </c>
       <c r="E6">
-        <v>7.782025896945116</v>
+        <v>7.577439930247023</v>
       </c>
       <c r="F6">
-        <v>25.33914126995775</v>
+        <v>23.28405029249852</v>
       </c>
       <c r="G6">
-        <v>35.99993147472914</v>
+        <v>31.90628040211167</v>
       </c>
       <c r="H6">
-        <v>2.456225631368149</v>
+        <v>2.310708120666321</v>
       </c>
       <c r="I6">
-        <v>3.347772152492869</v>
+        <v>3.170678626146826</v>
       </c>
       <c r="J6">
-        <v>11.78726492292917</v>
+        <v>11.33542717499771</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.5636858661453</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.25121307365891</v>
       </c>
       <c r="N6">
-        <v>7.147574494635449</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.332902708340518</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4415653409186</v>
+        <v>21.43324188097685</v>
       </c>
       <c r="C7">
-        <v>13.20195281720261</v>
+        <v>13.86771774268899</v>
       </c>
       <c r="D7">
-        <v>4.300668870975853</v>
+        <v>4.271389690743026</v>
       </c>
       <c r="E7">
-        <v>7.8481579726027</v>
+        <v>7.627918243430575</v>
       </c>
       <c r="F7">
-        <v>25.63011872632395</v>
+        <v>23.45574204209872</v>
       </c>
       <c r="G7">
-        <v>36.46730259195646</v>
+        <v>32.27400617127968</v>
       </c>
       <c r="H7">
-        <v>2.373151017358872</v>
+        <v>2.236811103485486</v>
       </c>
       <c r="I7">
-        <v>3.276318419616216</v>
+        <v>3.110405280217668</v>
       </c>
       <c r="J7">
-        <v>11.84504938599558</v>
+        <v>11.31729138069491</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.51914526761028</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.25060631606435</v>
       </c>
       <c r="N7">
-        <v>7.257314853380365</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.441333425854515</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.50911949813353</v>
+        <v>23.54438905619219</v>
       </c>
       <c r="C8">
-        <v>14.16924922491801</v>
+        <v>15.04529299369491</v>
       </c>
       <c r="D8">
-        <v>4.319850203662154</v>
+        <v>4.346252865221141</v>
       </c>
       <c r="E8">
-        <v>8.137756753021517</v>
+        <v>7.850239760973862</v>
       </c>
       <c r="F8">
-        <v>26.9635523480901</v>
+        <v>24.34613051509709</v>
       </c>
       <c r="G8">
-        <v>38.6073619698403</v>
+        <v>33.86660499138961</v>
       </c>
       <c r="H8">
-        <v>2.01728993588157</v>
+        <v>1.918993507992011</v>
       </c>
       <c r="I8">
-        <v>2.963696836573138</v>
+        <v>2.843120558766365</v>
       </c>
       <c r="J8">
-        <v>12.12886702644025</v>
+        <v>11.38544593643988</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.39289228884402</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.35287792012344</v>
       </c>
       <c r="N8">
-        <v>7.720931958557061</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.901820891039494</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.20131956311256</v>
+        <v>27.21836213730689</v>
       </c>
       <c r="C9">
-        <v>15.86959898749102</v>
+        <v>17.12977625125227</v>
       </c>
       <c r="D9">
-        <v>4.347836886730092</v>
+        <v>4.474121720407696</v>
       </c>
       <c r="E9">
-        <v>8.682254613354861</v>
+        <v>8.26978319120037</v>
       </c>
       <c r="F9">
-        <v>29.59261798318852</v>
+        <v>26.27466265062754</v>
       </c>
       <c r="G9">
-        <v>42.79146688657331</v>
+        <v>36.88056964133882</v>
       </c>
       <c r="H9">
-        <v>1.757753980062897</v>
+        <v>1.785983521412095</v>
       </c>
       <c r="I9">
-        <v>2.577737525177423</v>
+        <v>2.623715620728675</v>
       </c>
       <c r="J9">
-        <v>12.7382025328981</v>
+        <v>11.76189971585106</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.24099851396273</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.8285275381552</v>
       </c>
       <c r="N9">
-        <v>8.557822126174255</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.737498489076925</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.63528524487179</v>
+        <v>29.62978954473314</v>
       </c>
       <c r="C10">
-        <v>17.15814684963344</v>
+        <v>18.62093493049764</v>
       </c>
       <c r="D10">
-        <v>4.375844590667872</v>
+        <v>4.607472307436605</v>
       </c>
       <c r="E10">
-        <v>8.94827058122118</v>
+        <v>8.47243320202449</v>
       </c>
       <c r="F10">
-        <v>31.09042159109925</v>
+        <v>27.18621157748734</v>
       </c>
       <c r="G10">
-        <v>45.07632661993402</v>
+        <v>38.8111014975124</v>
       </c>
       <c r="H10">
-        <v>2.194944249645991</v>
+        <v>2.173188336256837</v>
       </c>
       <c r="I10">
-        <v>2.968524392546648</v>
+        <v>2.958235159618167</v>
       </c>
       <c r="J10">
-        <v>13.05269507819483</v>
+        <v>11.61796789075335</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.88101543921259</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.00516475380174</v>
       </c>
       <c r="N10">
-        <v>8.999286568932208</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.172398376217593</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.65548223255457</v>
+        <v>30.64243126496712</v>
       </c>
       <c r="C11">
-        <v>18.73955359183688</v>
+        <v>20.04193325333218</v>
       </c>
       <c r="D11">
-        <v>4.557507901805718</v>
+        <v>4.9559046098728</v>
       </c>
       <c r="E11">
-        <v>8.393688075889417</v>
+        <v>8.094609025524083</v>
       </c>
       <c r="F11">
-        <v>28.94701418691056</v>
+        <v>25.08493975979072</v>
       </c>
       <c r="G11">
-        <v>41.10830381019172</v>
+        <v>36.22464134512089</v>
       </c>
       <c r="H11">
-        <v>3.046999238944978</v>
+        <v>3.019863425204148</v>
       </c>
       <c r="I11">
-        <v>3.085363585869289</v>
+        <v>3.05929467749369</v>
       </c>
       <c r="J11">
-        <v>12.1135128177756</v>
+        <v>10.27610769362478</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.47581776585855</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.5874959166363</v>
       </c>
       <c r="N11">
-        <v>8.08726500298369</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.224374261924883</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.02480678400579</v>
+        <v>31.01043642200086</v>
       </c>
       <c r="C12">
-        <v>19.81201948128755</v>
+        <v>20.93001089687842</v>
       </c>
       <c r="D12">
-        <v>4.782023137359272</v>
+        <v>5.253189720923117</v>
       </c>
       <c r="E12">
-        <v>8.276268006729465</v>
+        <v>8.117089032964927</v>
       </c>
       <c r="F12">
-        <v>26.89817766238855</v>
+        <v>23.29477871617615</v>
       </c>
       <c r="G12">
-        <v>37.41388296483672</v>
+        <v>33.57540340558398</v>
       </c>
       <c r="H12">
-        <v>4.268247092660173</v>
+        <v>4.247855953558125</v>
       </c>
       <c r="I12">
-        <v>3.106207435295337</v>
+        <v>3.076868536855042</v>
       </c>
       <c r="J12">
-        <v>11.29133208151077</v>
+        <v>9.438018737852296</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.55378983799992</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.48095019210662</v>
       </c>
       <c r="N12">
-        <v>7.249192468589165</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.358377656967741</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.92760407205296</v>
+        <v>30.91716475285803</v>
       </c>
       <c r="C13">
-        <v>20.62489241140573</v>
+        <v>21.53930556458885</v>
       </c>
       <c r="D13">
-        <v>5.041654428156786</v>
+        <v>5.504637309489604</v>
       </c>
       <c r="E13">
-        <v>8.481377242925255</v>
+        <v>8.431035582587013</v>
       </c>
       <c r="F13">
-        <v>24.64266301395717</v>
+        <v>21.58300856557834</v>
       </c>
       <c r="G13">
-        <v>33.42241479210436</v>
+        <v>30.35384751210477</v>
       </c>
       <c r="H13">
-        <v>5.561681833397568</v>
+        <v>5.549800288874296</v>
       </c>
       <c r="I13">
-        <v>3.057658866914315</v>
+        <v>3.037386777671442</v>
       </c>
       <c r="J13">
-        <v>10.46304680542887</v>
+        <v>8.976423892984348</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.89885769492243</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.541227912819398</v>
       </c>
       <c r="N13">
-        <v>6.417798300676742</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.504288250114676</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.64755672985457</v>
+        <v>30.64203415067298</v>
       </c>
       <c r="C14">
-        <v>21.0991950175032</v>
+        <v>21.85785277954803</v>
       </c>
       <c r="D14">
-        <v>5.244336635950226</v>
+        <v>5.660732901480714</v>
       </c>
       <c r="E14">
-        <v>8.810194137584828</v>
+        <v>8.81218838407459</v>
       </c>
       <c r="F14">
-        <v>22.9303120520609</v>
+        <v>20.38433577496849</v>
       </c>
       <c r="G14">
-        <v>30.41836264893438</v>
+        <v>27.7807258340944</v>
       </c>
       <c r="H14">
-        <v>6.493702224548461</v>
+        <v>6.487223251650162</v>
       </c>
       <c r="I14">
-        <v>2.99390445932217</v>
+        <v>2.985642402497462</v>
       </c>
       <c r="J14">
-        <v>9.876712849542267</v>
+        <v>8.792652459689604</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.55164662726225</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.971400128908977</v>
       </c>
       <c r="N14">
-        <v>5.852782098034064</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.926005220613209</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.47803104839874</v>
+        <v>30.47484078090737</v>
       </c>
       <c r="C15">
-        <v>21.16942785490134</v>
+        <v>21.886275187561</v>
       </c>
       <c r="D15">
-        <v>5.294520328795443</v>
+        <v>5.686434806589451</v>
       </c>
       <c r="E15">
-        <v>8.902382976784049</v>
+        <v>8.915142910518343</v>
       </c>
       <c r="F15">
-        <v>22.44322456723665</v>
+        <v>20.08102549466749</v>
       </c>
       <c r="G15">
-        <v>29.57572017151597</v>
+        <v>27.00124842056096</v>
       </c>
       <c r="H15">
-        <v>6.704607500026808</v>
+        <v>6.699963427542431</v>
       </c>
       <c r="I15">
-        <v>2.963944122050692</v>
+        <v>2.961916649021581</v>
       </c>
       <c r="J15">
-        <v>9.724924433983</v>
+        <v>8.799349777645658</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.49394951790516</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.855885030628099</v>
       </c>
       <c r="N15">
-        <v>5.713830204463674</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.785085983496444</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.5005027275664</v>
+        <v>29.50807287643875</v>
       </c>
       <c r="C16">
-        <v>20.55166728587553</v>
+        <v>21.2565596027698</v>
       </c>
       <c r="D16">
-        <v>5.225210131858712</v>
+        <v>5.523774233491767</v>
       </c>
       <c r="E16">
-        <v>8.736116853404539</v>
+        <v>8.762120650195685</v>
       </c>
       <c r="F16">
-        <v>22.09037881021113</v>
+        <v>20.17897782852063</v>
       </c>
       <c r="G16">
-        <v>29.08447050786412</v>
+        <v>26.12130605088237</v>
       </c>
       <c r="H16">
-        <v>6.441107543372724</v>
+        <v>6.439367024827772</v>
       </c>
       <c r="I16">
-        <v>2.808695816424625</v>
+        <v>2.834125540587699</v>
       </c>
       <c r="J16">
-        <v>9.726646331124735</v>
+        <v>9.301281953868331</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.75670390731405</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.103508302908411</v>
       </c>
       <c r="N16">
-        <v>5.655670644218138</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.739279629807467</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.88958410442801</v>
+        <v>28.90250280586538</v>
       </c>
       <c r="C17">
-        <v>19.80143579962219</v>
+        <v>20.57727726611768</v>
       </c>
       <c r="D17">
-        <v>5.059041697740562</v>
+        <v>5.325297771253836</v>
       </c>
       <c r="E17">
-        <v>8.395009918124199</v>
+        <v>8.406318241135063</v>
       </c>
       <c r="F17">
-        <v>22.76175351262196</v>
+        <v>20.86955639180738</v>
       </c>
       <c r="G17">
-        <v>30.36609721680005</v>
+        <v>26.94358737183871</v>
       </c>
       <c r="H17">
-        <v>5.696351799468849</v>
+        <v>5.691203486873817</v>
       </c>
       <c r="I17">
-        <v>2.723449390218157</v>
+        <v>2.763079680877831</v>
       </c>
       <c r="J17">
-        <v>10.03934548005079</v>
+        <v>9.748735992404784</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.15521875029142</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.559960517556359</v>
       </c>
       <c r="N17">
-        <v>5.909854077408677</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.008866088653383</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.54010000258116</v>
+        <v>28.55464868818358</v>
       </c>
       <c r="C18">
-        <v>18.84261541525335</v>
+        <v>19.77430981266542</v>
       </c>
       <c r="D18">
-        <v>4.811633718127798</v>
+        <v>5.07072880096781</v>
       </c>
       <c r="E18">
-        <v>8.04681568802525</v>
+        <v>7.995068050262597</v>
       </c>
       <c r="F18">
-        <v>24.44344583203505</v>
+        <v>22.25983070307672</v>
       </c>
       <c r="G18">
-        <v>33.41427007957938</v>
+        <v>29.28805183350608</v>
       </c>
       <c r="H18">
-        <v>4.42691548890009</v>
+        <v>4.436307046181403</v>
       </c>
       <c r="I18">
-        <v>2.688548158141785</v>
+        <v>2.731412286839143</v>
       </c>
       <c r="J18">
-        <v>10.68213152991333</v>
+        <v>10.31554465009837</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.81260473019481</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.330969340101614</v>
       </c>
       <c r="N18">
-        <v>6.50439080567635</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.62426250138818</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.43285245827106</v>
+        <v>28.44576502872312</v>
       </c>
       <c r="C19">
-        <v>17.89096750124101</v>
+        <v>19.01689951500981</v>
       </c>
       <c r="D19">
-        <v>4.579315100961241</v>
+        <v>4.825482054007153</v>
       </c>
       <c r="E19">
-        <v>8.028674954768482</v>
+        <v>7.847322825282401</v>
       </c>
       <c r="F19">
-        <v>26.6718073611148</v>
+        <v>24.01831061517602</v>
       </c>
       <c r="G19">
-        <v>37.40240023798702</v>
+        <v>32.41444691074023</v>
       </c>
       <c r="H19">
-        <v>3.042536013253377</v>
+        <v>3.054183426522856</v>
       </c>
       <c r="I19">
-        <v>2.71125460451005</v>
+        <v>2.750206840467009</v>
       </c>
       <c r="J19">
-        <v>11.51027141370708</v>
+        <v>10.94961508985573</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.64819526289534</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.30367474143783</v>
       </c>
       <c r="N19">
-        <v>7.374158019554426</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.517632679731852</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.01301716422466</v>
+        <v>29.01472963471287</v>
       </c>
       <c r="C20">
-        <v>16.92558130849226</v>
+        <v>18.34807003014943</v>
       </c>
       <c r="D20">
-        <v>4.375558020784187</v>
+        <v>4.577753813523743</v>
       </c>
       <c r="E20">
-        <v>8.850112971094797</v>
+        <v>8.399595075573808</v>
       </c>
       <c r="F20">
-        <v>30.48133975327904</v>
+        <v>26.87601563587318</v>
       </c>
       <c r="G20">
-        <v>44.09403173541421</v>
+        <v>37.80049221033709</v>
       </c>
       <c r="H20">
-        <v>2.075930113978973</v>
+        <v>2.069807827552465</v>
       </c>
       <c r="I20">
-        <v>2.875979922055899</v>
+        <v>2.886571783992703</v>
       </c>
       <c r="J20">
-        <v>12.88513812337273</v>
+        <v>11.78198032457019</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.92043924393575</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.89146975753466</v>
       </c>
       <c r="N20">
-        <v>8.88757056072453</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.06284866940306</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.79886062033939</v>
+        <v>30.77702080853652</v>
       </c>
       <c r="C21">
-        <v>17.69401398780024</v>
+        <v>19.21339662745031</v>
       </c>
       <c r="D21">
-        <v>4.377428495830057</v>
+        <v>4.699519647181489</v>
       </c>
       <c r="E21">
-        <v>9.2201723579772</v>
+        <v>8.67723458935798</v>
       </c>
       <c r="F21">
-        <v>32.14371695116989</v>
+        <v>27.4031076765275</v>
       </c>
       <c r="G21">
-        <v>46.75421832326465</v>
+        <v>40.92019611297611</v>
       </c>
       <c r="H21">
-        <v>2.425859770825153</v>
+        <v>2.369405424957308</v>
       </c>
       <c r="I21">
-        <v>3.180914255708347</v>
+        <v>3.135724171445695</v>
       </c>
       <c r="J21">
-        <v>13.3339420144516</v>
+        <v>10.83582705846201</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.614445061227</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.00729482713522</v>
       </c>
       <c r="N21">
-        <v>9.414821425233534</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.581302059574435</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.91566168808674</v>
+        <v>31.87785631064392</v>
       </c>
       <c r="C22">
-        <v>18.20144133957273</v>
+        <v>19.76727793697852</v>
       </c>
       <c r="D22">
-        <v>4.381041155264205</v>
+        <v>4.79230885213263</v>
       </c>
       <c r="E22">
-        <v>9.413190039386802</v>
+        <v>8.822285138106297</v>
       </c>
       <c r="F22">
-        <v>33.12860174403893</v>
+        <v>27.64970683337937</v>
       </c>
       <c r="G22">
-        <v>48.30924902856217</v>
+        <v>42.88478933777788</v>
       </c>
       <c r="H22">
-        <v>2.645633306581037</v>
+        <v>2.557089217123063</v>
       </c>
       <c r="I22">
-        <v>3.371158897694988</v>
+        <v>3.288999936276534</v>
       </c>
       <c r="J22">
-        <v>13.59620886086853</v>
+        <v>10.15763655663159</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.37095293525473</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.04036710237397</v>
       </c>
       <c r="N22">
-        <v>9.680206629958917</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.839497408796159</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.32475593007106</v>
+        <v>31.2959547627275</v>
       </c>
       <c r="C23">
-        <v>17.89827695531497</v>
+        <v>19.45217732398986</v>
       </c>
       <c r="D23">
-        <v>4.376825305208213</v>
+        <v>4.727681114986601</v>
       </c>
       <c r="E23">
-        <v>9.31959065117525</v>
+        <v>8.752295249010684</v>
       </c>
       <c r="F23">
-        <v>32.67870297214624</v>
+        <v>27.661683820163</v>
       </c>
       <c r="G23">
-        <v>47.61345576628109</v>
+        <v>41.82580067555523</v>
       </c>
       <c r="H23">
-        <v>2.529998864557978</v>
+        <v>2.459511682437432</v>
       </c>
       <c r="I23">
-        <v>3.266603397440861</v>
+        <v>3.20370677575266</v>
       </c>
       <c r="J23">
-        <v>13.48533200682344</v>
+        <v>10.66971371953116</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.57057491610668</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.10642333818944</v>
       </c>
       <c r="N23">
-        <v>9.536400639452278</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.701124647021029</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.98656968855682</v>
+        <v>28.98797464801112</v>
       </c>
       <c r="C24">
-        <v>16.77072045686627</v>
+        <v>18.20981214593062</v>
       </c>
       <c r="D24">
-        <v>4.362916609137047</v>
+        <v>4.550048644521892</v>
       </c>
       <c r="E24">
-        <v>8.943922789144167</v>
+        <v>8.471665223623125</v>
       </c>
       <c r="F24">
-        <v>30.825948598057</v>
+        <v>27.1601140127892</v>
       </c>
       <c r="G24">
-        <v>44.71054255464828</v>
+        <v>38.29237858483773</v>
       </c>
       <c r="H24">
-        <v>2.083243174993297</v>
+        <v>2.076327805189151</v>
       </c>
       <c r="I24">
-        <v>2.870891924756184</v>
+        <v>2.878476000964913</v>
       </c>
       <c r="J24">
-        <v>13.02065752256297</v>
+        <v>11.89590801084213</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.08622392048959</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.07262185602837</v>
       </c>
       <c r="N24">
-        <v>8.979659606625365</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.158161683509743</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.24907717370835</v>
+        <v>26.27408760971364</v>
       </c>
       <c r="C25">
-        <v>15.48214491508311</v>
+        <v>16.64873972440179</v>
       </c>
       <c r="D25">
-        <v>4.344027723190468</v>
+        <v>4.44403332885327</v>
       </c>
       <c r="E25">
-        <v>8.523965635054898</v>
+        <v>8.148868316791239</v>
       </c>
       <c r="F25">
-        <v>28.76923474910468</v>
+        <v>25.70184399623463</v>
       </c>
       <c r="G25">
-        <v>41.46329662938936</v>
+        <v>35.81183138201744</v>
       </c>
       <c r="H25">
-        <v>1.585663685212323</v>
+        <v>1.633142207427204</v>
       </c>
       <c r="I25">
-        <v>2.550369502903217</v>
+        <v>2.504413117602541</v>
       </c>
       <c r="J25">
-        <v>12.52550262817042</v>
+        <v>11.70311574917388</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.24553126870449</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.6407207923524</v>
       </c>
       <c r="N25">
-        <v>8.343846539629871</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.523745605173742</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
